--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>事件</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>python应用</t>
+  </si>
+  <si>
+    <t>学习java</t>
   </si>
 </sst>
 </file>
@@ -60,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,6 +99,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -105,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,9 +145,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +170,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +193,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,14 +200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,36 +216,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +242,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +338,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,15 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -459,6 +453,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,162 +521,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.0357142857143" customWidth="1"/>
     <col min="3" max="3" width="22.0178571428571" customWidth="1"/>
@@ -1070,9 +1073,60 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
